--- a/big_data2.xlsx
+++ b/big_data2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E765D02-765C-484F-903D-44CC88026D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72944DDE-609A-984B-8C67-B9D6F7AFE577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2060" windowWidth="32200" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>

--- a/big_data2.xlsx
+++ b/big_data2.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72944DDE-609A-984B-8C67-B9D6F7AFE577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F470DC6D-C5E0-C44E-A965-480F6F79AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2060" windowWidth="32200" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -313,7 +324,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -322,12 +333,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-blocked</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>blocked</t>
         </r>
       </text>
     </comment>
@@ -477,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,17 +559,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66:O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1017,13 +1030,13 @@
       <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
@@ -1035,13 +1048,13 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>12</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>12</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>12</v>
       </c>
       <c r="V3">
@@ -1085,14 +1098,14 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="5">
-        <v>5</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>5</v>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1103,9 +1116,9 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="V4">
         <v>8</v>
       </c>
@@ -1147,14 +1160,14 @@
       <c r="L5" s="4">
         <v>20</v>
       </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>2</v>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1165,9 +1178,9 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="V5">
         <v>8</v>
       </c>
@@ -1209,14 +1222,14 @@
       <c r="L6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="5">
-        <v>4</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4</v>
-      </c>
-      <c r="O6" s="5">
-        <v>4</v>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1227,9 +1240,9 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6">
         <v>8</v>
       </c>
@@ -1271,14 +1284,14 @@
       <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
-        <v>10</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5">
-        <v>10</v>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1289,9 +1302,9 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="V7">
         <v>8</v>
       </c>
@@ -1333,14 +1346,14 @@
       <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="5">
-        <v>4</v>
-      </c>
-      <c r="N8" s="5">
-        <v>4</v>
-      </c>
-      <c r="O8" s="5">
-        <v>4</v>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>30</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1351,9 +1364,9 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8">
         <v>8</v>
       </c>
@@ -1395,14 +1408,14 @@
       <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1413,9 +1426,9 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="V9">
         <v>8</v>
       </c>
@@ -1457,14 +1470,14 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
-        <v>4</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-      <c r="O10" s="5">
-        <v>4</v>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1475,9 +1488,9 @@
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="V10">
         <v>8</v>
       </c>
@@ -1519,14 +1532,14 @@
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="5">
-        <v>5</v>
-      </c>
-      <c r="N11" s="5">
-        <v>5</v>
-      </c>
-      <c r="O11" s="5">
-        <v>5</v>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1537,9 +1550,9 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="V11">
         <v>8</v>
       </c>
@@ -1581,13 +1594,13 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -1599,9 +1612,9 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12">
         <v>8</v>
       </c>
@@ -1643,14 +1656,14 @@
       <c r="L13" s="4">
         <v>20</v>
       </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>30</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1661,9 +1674,9 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="V13">
         <v>8</v>
       </c>
@@ -1705,14 +1718,14 @@
       <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="5">
-        <v>20</v>
-      </c>
-      <c r="N14" s="5">
-        <v>20</v>
-      </c>
-      <c r="O14" s="5">
-        <v>20</v>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>30</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1723,9 +1736,9 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14">
         <v>8</v>
       </c>
@@ -1767,14 +1780,14 @@
       <c r="L15" s="4">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
-        <v>10</v>
-      </c>
-      <c r="N15" s="5">
-        <v>10</v>
-      </c>
-      <c r="O15" s="5">
-        <v>10</v>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1785,9 +1798,9 @@
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15">
         <v>8</v>
       </c>
@@ -1829,14 +1842,14 @@
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
-        <v>4</v>
-      </c>
-      <c r="N16" s="5">
-        <v>4</v>
-      </c>
-      <c r="O16" s="5">
-        <v>4</v>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1847,9 +1860,9 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16">
         <v>8</v>
       </c>
@@ -1891,14 +1904,14 @@
       <c r="L17" s="4">
         <v>10</v>
       </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1</v>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <v>30</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1909,9 +1922,9 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17">
         <v>8</v>
       </c>
@@ -1953,14 +1966,14 @@
       <c r="L18" s="4">
         <v>9</v>
       </c>
-      <c r="M18" s="5">
-        <v>20</v>
-      </c>
-      <c r="N18" s="5">
-        <v>20</v>
-      </c>
-      <c r="O18" s="5">
-        <v>20</v>
+      <c r="M18">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <v>30</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1971,9 +1984,9 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18">
         <v>8</v>
       </c>
@@ -2015,14 +2028,14 @@
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="5">
-        <v>3</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3</v>
-      </c>
-      <c r="O19" s="5">
-        <v>3</v>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2033,9 +2046,9 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19">
         <v>8</v>
       </c>
@@ -2077,14 +2090,14 @@
       <c r="L20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="5">
-        <v>6</v>
-      </c>
-      <c r="N20" s="5">
-        <v>6</v>
-      </c>
-      <c r="O20" s="5">
-        <v>6</v>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -2095,9 +2108,9 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20">
         <v>8</v>
       </c>
@@ -2139,13 +2152,13 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
@@ -2157,9 +2170,9 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21">
         <v>8</v>
       </c>
@@ -2201,14 +2214,14 @@
       <c r="L22" s="4">
         <v>3</v>
       </c>
-      <c r="M22" s="5">
-        <v>10</v>
-      </c>
-      <c r="N22" s="5">
-        <v>10</v>
-      </c>
-      <c r="O22" s="5">
-        <v>10</v>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2219,9 +2232,9 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
       <c r="V22">
         <v>8</v>
       </c>
@@ -2263,14 +2276,14 @@
       <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
-        <v>10</v>
-      </c>
-      <c r="N23" s="5">
-        <v>10</v>
-      </c>
-      <c r="O23" s="5">
-        <v>10</v>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2281,9 +2294,9 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
       <c r="V23">
         <v>8</v>
       </c>
@@ -2325,14 +2338,14 @@
       <c r="L24" s="4">
         <v>2</v>
       </c>
-      <c r="M24" s="5">
-        <v>4</v>
-      </c>
-      <c r="N24" s="5">
-        <v>4</v>
-      </c>
-      <c r="O24" s="5">
-        <v>4</v>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>30</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2343,21 +2356,21 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
       <c r="V24">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0</v>
       </c>
       <c r="D25" s="2">
@@ -2387,14 +2400,14 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="5">
-        <v>5</v>
-      </c>
-      <c r="N25" s="5">
-        <v>5</v>
-      </c>
-      <c r="O25" s="5">
-        <v>5</v>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>30</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2405,21 +2418,21 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
       <c r="V25">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="7">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
         <v>0</v>
       </c>
       <c r="D26" s="2">
@@ -2449,14 +2462,14 @@
       <c r="L26" s="4">
         <v>5</v>
       </c>
-      <c r="M26" s="5">
-        <v>4</v>
-      </c>
-      <c r="N26" s="5">
-        <v>4</v>
-      </c>
-      <c r="O26" s="5">
-        <v>4</v>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>30</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2467,9 +2480,9 @@
       <c r="R26">
         <v>1</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
       <c r="V26">
         <v>8</v>
       </c>
@@ -2511,14 +2524,14 @@
       <c r="L27" s="4">
         <v>3</v>
       </c>
-      <c r="M27" s="5">
-        <v>10</v>
-      </c>
-      <c r="N27" s="5">
-        <v>10</v>
-      </c>
-      <c r="O27" s="5">
-        <v>10</v>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>30</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2529,9 +2542,9 @@
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
       <c r="V27">
         <v>8</v>
       </c>
@@ -2573,14 +2586,14 @@
       <c r="L28" s="4">
         <v>1</v>
       </c>
-      <c r="M28" s="5">
-        <v>5</v>
-      </c>
-      <c r="N28" s="5">
-        <v>5</v>
-      </c>
-      <c r="O28" s="5">
-        <v>5</v>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2591,9 +2604,9 @@
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="V28">
         <v>8</v>
       </c>
@@ -2635,14 +2648,14 @@
       <c r="L29" s="4">
         <v>20</v>
       </c>
-      <c r="M29" s="5">
-        <v>8</v>
-      </c>
-      <c r="N29" s="5">
-        <v>8</v>
-      </c>
-      <c r="O29" s="5">
-        <v>8</v>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <v>30</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2653,9 +2666,9 @@
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29">
         <v>8</v>
       </c>
@@ -2697,13 +2710,13 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
@@ -2715,9 +2728,9 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
       <c r="V30">
         <v>8</v>
       </c>
@@ -2759,14 +2772,14 @@
       <c r="L31" s="4">
         <v>2</v>
       </c>
-      <c r="M31" s="5">
-        <v>10</v>
-      </c>
-      <c r="N31" s="5">
-        <v>10</v>
-      </c>
-      <c r="O31" s="5">
-        <v>10</v>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2777,9 +2790,9 @@
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
       <c r="V31">
         <v>8</v>
       </c>
@@ -2821,14 +2834,14 @@
       <c r="L32" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
-        <v>5</v>
-      </c>
-      <c r="N32" s="5">
-        <v>5</v>
-      </c>
-      <c r="O32" s="5">
-        <v>5</v>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2839,21 +2852,21 @@
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
       <c r="V32">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>4</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>7</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>0</v>
       </c>
       <c r="D33" s="2">
@@ -2883,39 +2896,39 @@
       <c r="L33" s="4">
         <v>5</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
-      <c r="N33" s="5">
-        <v>4</v>
-      </c>
-      <c r="O33" s="5">
-        <v>4</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>4</v>
-      </c>
-      <c r="B34" s="7">
-        <v>8</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="6">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
         <v>0</v>
       </c>
       <c r="D34" s="2">
@@ -2945,14 +2958,14 @@
       <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2963,9 +2976,9 @@
       <c r="R34">
         <v>1</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
       <c r="V34">
         <v>8</v>
       </c>
@@ -3007,14 +3020,14 @@
       <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M35" s="5">
-        <v>10</v>
-      </c>
-      <c r="N35" s="5">
-        <v>10</v>
-      </c>
-      <c r="O35" s="5">
-        <v>10</v>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>30</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -3025,9 +3038,9 @@
       <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
       <c r="V35">
         <v>8</v>
       </c>
@@ -3069,14 +3082,14 @@
       <c r="L36" s="4">
         <v>3</v>
       </c>
-      <c r="M36" s="5">
-        <v>5</v>
-      </c>
-      <c r="N36" s="5">
-        <v>5</v>
-      </c>
-      <c r="O36" s="5">
-        <v>5</v>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>30</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -3087,9 +3100,9 @@
       <c r="R36">
         <v>1</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
       <c r="V36">
         <v>8</v>
       </c>
@@ -3131,14 +3144,14 @@
       <c r="L37" s="4">
         <v>20</v>
       </c>
-      <c r="M37" s="5">
-        <v>8</v>
-      </c>
-      <c r="N37" s="5">
-        <v>8</v>
-      </c>
-      <c r="O37" s="5">
-        <v>8</v>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>30</v>
+      </c>
+      <c r="O37">
+        <v>30</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3149,9 +3162,9 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
       <c r="V37">
         <v>8</v>
       </c>
@@ -3193,14 +3206,14 @@
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
-        <v>2</v>
-      </c>
-      <c r="N38" s="5">
-        <v>2</v>
-      </c>
-      <c r="O38" s="5">
-        <v>2</v>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <v>30</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3211,9 +3224,9 @@
       <c r="R38">
         <v>1</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
       <c r="V38">
         <v>8</v>
       </c>
@@ -3255,13 +3268,13 @@
       <c r="L39" s="4">
         <v>0</v>
       </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
@@ -3273,9 +3286,9 @@
       <c r="R39">
         <v>1</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
       <c r="V39">
         <v>8</v>
       </c>
@@ -3317,14 +3330,14 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
-        <v>4</v>
-      </c>
-      <c r="N40" s="5">
-        <v>4</v>
-      </c>
-      <c r="O40" s="5">
-        <v>4</v>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>30</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3335,21 +3348,21 @@
       <c r="R40">
         <v>1</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
       <c r="V40">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>5</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>7</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>0</v>
       </c>
       <c r="D41" s="2">
@@ -3379,39 +3392,39 @@
       <c r="L41" s="4">
         <v>10</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41">
+        <v>30</v>
+      </c>
+      <c r="N41">
+        <v>30</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>5</v>
       </c>
-      <c r="N41" s="5">
-        <v>5</v>
-      </c>
-      <c r="O41" s="5">
-        <v>5</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>5</v>
-      </c>
-      <c r="B42" s="7">
-        <v>8</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="6">
+        <v>8</v>
+      </c>
+      <c r="C42" s="7">
         <v>0</v>
       </c>
       <c r="D42" s="2">
@@ -3441,14 +3454,14 @@
       <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="5">
-        <v>4</v>
-      </c>
-      <c r="N42" s="5">
-        <v>4</v>
-      </c>
-      <c r="O42" s="5">
-        <v>4</v>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <v>30</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3459,10 +3472,10 @@
       <c r="R42">
         <v>1</v>
       </c>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="8">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3503,14 +3516,14 @@
       <c r="L43" s="4">
         <v>3</v>
       </c>
-      <c r="M43" s="5">
-        <v>10</v>
-      </c>
-      <c r="N43" s="5">
-        <v>10</v>
-      </c>
-      <c r="O43" s="5">
-        <v>10</v>
+      <c r="M43">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>30</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -3521,9 +3534,9 @@
       <c r="R43">
         <v>1</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
       <c r="V43">
         <v>8</v>
       </c>
@@ -3565,14 +3578,14 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
-        <v>5</v>
-      </c>
-      <c r="N44" s="5">
-        <v>5</v>
-      </c>
-      <c r="O44" s="5">
-        <v>5</v>
+      <c r="M44">
+        <v>30</v>
+      </c>
+      <c r="N44">
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <v>30</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -3583,9 +3596,9 @@
       <c r="R44">
         <v>1</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
       <c r="V44">
         <v>8</v>
       </c>
@@ -3627,14 +3640,14 @@
       <c r="L45" s="4">
         <v>20</v>
       </c>
-      <c r="M45" s="5">
-        <v>8</v>
-      </c>
-      <c r="N45" s="5">
-        <v>8</v>
-      </c>
-      <c r="O45" s="5">
-        <v>8</v>
+      <c r="M45">
+        <v>30</v>
+      </c>
+      <c r="N45">
+        <v>30</v>
+      </c>
+      <c r="O45">
+        <v>30</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -3645,9 +3658,9 @@
       <c r="R45">
         <v>1</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
       <c r="V45">
         <v>8</v>
       </c>
@@ -3689,14 +3702,14 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
-        <v>2</v>
-      </c>
-      <c r="N46" s="5">
-        <v>2</v>
-      </c>
-      <c r="O46" s="5">
-        <v>2</v>
+      <c r="M46">
+        <v>30</v>
+      </c>
+      <c r="N46">
+        <v>30</v>
+      </c>
+      <c r="O46">
+        <v>30</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3707,9 +3720,9 @@
       <c r="R46">
         <v>1</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
       <c r="V46">
         <v>8</v>
       </c>
@@ -3751,14 +3764,14 @@
       <c r="L47" s="4">
         <v>2</v>
       </c>
-      <c r="M47" s="5">
-        <v>10</v>
-      </c>
-      <c r="N47" s="5">
-        <v>10</v>
-      </c>
-      <c r="O47" s="5">
-        <v>10</v>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47">
+        <v>30</v>
+      </c>
+      <c r="O47">
+        <v>30</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -3769,9 +3782,9 @@
       <c r="R47">
         <v>1</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
       <c r="V47">
         <v>8</v>
       </c>
@@ -3813,13 +3826,13 @@
       <c r="L48" s="4">
         <v>0</v>
       </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
@@ -3831,21 +3844,21 @@
       <c r="R48">
         <v>1</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
       <c r="V48">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>6</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="6">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6">
         <v>7</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>0</v>
       </c>
       <c r="D49" s="2">
@@ -3875,14 +3888,14 @@
       <c r="L49" s="4">
         <v>15</v>
       </c>
-      <c r="M49" s="5">
-        <v>5</v>
-      </c>
-      <c r="N49" s="5">
-        <v>5</v>
-      </c>
-      <c r="O49" s="5">
-        <v>5</v>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>30</v>
+      </c>
+      <c r="O49">
+        <v>30</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -3893,21 +3906,21 @@
       <c r="R49">
         <v>1</v>
       </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="8">
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>6</v>
-      </c>
-      <c r="B50" s="7">
-        <v>8</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="A50" s="6">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7">
         <v>0</v>
       </c>
       <c r="D50" s="2">
@@ -3937,14 +3950,14 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
-        <v>4</v>
-      </c>
-      <c r="N50" s="5">
-        <v>4</v>
-      </c>
-      <c r="O50" s="5">
-        <v>4</v>
+      <c r="M50">
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>30</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -3955,10 +3968,10 @@
       <c r="R50">
         <v>1</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="8">
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3999,14 +4012,14 @@
       <c r="L51" s="4">
         <v>3</v>
       </c>
-      <c r="M51" s="5">
-        <v>10</v>
-      </c>
-      <c r="N51" s="5">
-        <v>10</v>
-      </c>
-      <c r="O51" s="5">
-        <v>10</v>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>30</v>
+      </c>
+      <c r="O51">
+        <v>30</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -4017,9 +4030,9 @@
       <c r="R51">
         <v>1</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
       <c r="V51">
         <v>8</v>
       </c>
@@ -4061,14 +4074,14 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
-        <v>5</v>
-      </c>
-      <c r="N52" s="5">
-        <v>5</v>
-      </c>
-      <c r="O52" s="5">
-        <v>5</v>
+      <c r="M52">
+        <v>30</v>
+      </c>
+      <c r="N52">
+        <v>30</v>
+      </c>
+      <c r="O52">
+        <v>30</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -4079,9 +4092,9 @@
       <c r="R52">
         <v>1</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
       <c r="V52">
         <v>8</v>
       </c>
@@ -4123,14 +4136,14 @@
       <c r="L53" s="4">
         <v>20</v>
       </c>
-      <c r="M53" s="5">
-        <v>8</v>
-      </c>
-      <c r="N53" s="5">
-        <v>8</v>
-      </c>
-      <c r="O53" s="5">
-        <v>8</v>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>30</v>
+      </c>
+      <c r="O53">
+        <v>30</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -4141,9 +4154,9 @@
       <c r="R53">
         <v>1</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
       <c r="V53">
         <v>8</v>
       </c>
@@ -4185,14 +4198,14 @@
       <c r="L54" s="4">
         <v>2</v>
       </c>
-      <c r="M54" s="5">
-        <v>2</v>
-      </c>
-      <c r="N54" s="5">
-        <v>2</v>
-      </c>
-      <c r="O54" s="5">
-        <v>2</v>
+      <c r="M54">
+        <v>30</v>
+      </c>
+      <c r="N54">
+        <v>30</v>
+      </c>
+      <c r="O54">
+        <v>30</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -4203,9 +4216,9 @@
       <c r="R54">
         <v>1</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
       <c r="V54">
         <v>8</v>
       </c>
@@ -4247,14 +4260,14 @@
       <c r="L55" s="4">
         <v>2</v>
       </c>
-      <c r="M55" s="5">
-        <v>10</v>
-      </c>
-      <c r="N55" s="5">
-        <v>10</v>
-      </c>
-      <c r="O55" s="5">
-        <v>10</v>
+      <c r="M55">
+        <v>30</v>
+      </c>
+      <c r="N55">
+        <v>30</v>
+      </c>
+      <c r="O55">
+        <v>30</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -4265,9 +4278,9 @@
       <c r="R55">
         <v>1</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
       <c r="V55">
         <v>8</v>
       </c>
@@ -4309,14 +4322,14 @@
       <c r="L56" s="4">
         <v>0</v>
       </c>
-      <c r="M56" s="5">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="5">
-        <v>0</v>
+      <c r="M56">
+        <v>30</v>
+      </c>
+      <c r="N56">
+        <v>30</v>
+      </c>
+      <c r="O56">
+        <v>30</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -4327,21 +4340,21 @@
       <c r="R56">
         <v>1</v>
       </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
       <c r="V56">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>7</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>7</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>0</v>
       </c>
       <c r="D57" s="2">
@@ -4371,14 +4384,14 @@
       <c r="L57" s="4">
         <v>7</v>
       </c>
-      <c r="M57" s="5">
-        <v>5</v>
-      </c>
-      <c r="N57" s="5">
-        <v>5</v>
-      </c>
-      <c r="O57" s="5">
-        <v>5</v>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -4389,21 +4402,21 @@
       <c r="R57">
         <v>1</v>
       </c>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="8">
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>7</v>
       </c>
-      <c r="B58" s="7">
-        <v>8</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="6">
+        <v>8</v>
+      </c>
+      <c r="C58" s="7">
         <v>0</v>
       </c>
       <c r="D58" s="2">
@@ -4433,14 +4446,14 @@
       <c r="L58" s="4">
         <v>2</v>
       </c>
-      <c r="M58" s="5">
-        <v>4</v>
-      </c>
-      <c r="N58" s="5">
-        <v>4</v>
-      </c>
-      <c r="O58" s="5">
-        <v>4</v>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>30</v>
+      </c>
+      <c r="O58">
+        <v>30</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -4451,10 +4464,10 @@
       <c r="R58">
         <v>1</v>
       </c>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="8">
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="7">
         <v>8</v>
       </c>
     </row>
@@ -4495,14 +4508,14 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
-        <v>10</v>
-      </c>
-      <c r="N59" s="5">
-        <v>10</v>
-      </c>
-      <c r="O59" s="5">
-        <v>10</v>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <v>30</v>
+      </c>
+      <c r="O59">
+        <v>30</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -4513,9 +4526,9 @@
       <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
       <c r="V59">
         <v>8</v>
       </c>
@@ -4557,14 +4570,14 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-      <c r="M60" s="5">
-        <v>5</v>
-      </c>
-      <c r="N60" s="5">
-        <v>5</v>
-      </c>
-      <c r="O60" s="5">
-        <v>5</v>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>30</v>
+      </c>
+      <c r="O60">
+        <v>30</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -4575,9 +4588,9 @@
       <c r="R60">
         <v>1</v>
       </c>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
       <c r="V60">
         <v>8</v>
       </c>
@@ -4619,14 +4632,14 @@
       <c r="L61" s="4">
         <v>20</v>
       </c>
-      <c r="M61" s="5">
-        <v>8</v>
-      </c>
-      <c r="N61" s="5">
-        <v>8</v>
-      </c>
-      <c r="O61" s="5">
-        <v>8</v>
+      <c r="M61">
+        <v>30</v>
+      </c>
+      <c r="N61">
+        <v>30</v>
+      </c>
+      <c r="O61">
+        <v>30</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -4637,9 +4650,9 @@
       <c r="R61">
         <v>1</v>
       </c>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
       <c r="V61">
         <v>8</v>
       </c>
@@ -4681,14 +4694,14 @@
       <c r="L62" s="4">
         <v>2</v>
       </c>
-      <c r="M62" s="5">
-        <v>2</v>
-      </c>
-      <c r="N62" s="5">
-        <v>2</v>
-      </c>
-      <c r="O62" s="5">
-        <v>2</v>
+      <c r="M62">
+        <v>30</v>
+      </c>
+      <c r="N62">
+        <v>30</v>
+      </c>
+      <c r="O62">
+        <v>30</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -4699,9 +4712,9 @@
       <c r="R62">
         <v>1</v>
       </c>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
       <c r="V62">
         <v>8</v>
       </c>
@@ -4743,14 +4756,14 @@
       <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="M63" s="5">
-        <v>10</v>
-      </c>
-      <c r="N63" s="5">
-        <v>10</v>
-      </c>
-      <c r="O63" s="5">
-        <v>10</v>
+      <c r="M63">
+        <v>30</v>
+      </c>
+      <c r="N63">
+        <v>30</v>
+      </c>
+      <c r="O63">
+        <v>30</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -4761,9 +4774,9 @@
       <c r="R63">
         <v>1</v>
       </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
       <c r="V63">
         <v>8</v>
       </c>
@@ -4805,14 +4818,14 @@
       <c r="L64" s="4">
         <v>0</v>
       </c>
-      <c r="M64" s="5">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5">
-        <v>0</v>
-      </c>
-      <c r="O64" s="5">
-        <v>0</v>
+      <c r="M64">
+        <v>30</v>
+      </c>
+      <c r="N64">
+        <v>30</v>
+      </c>
+      <c r="O64">
+        <v>30</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -4823,21 +4836,21 @@
       <c r="R64">
         <v>1</v>
       </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
       <c r="V64">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>8</v>
-      </c>
-      <c r="B65" s="7">
+      <c r="A65" s="6">
+        <v>8</v>
+      </c>
+      <c r="B65" s="6">
         <v>7</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>0</v>
       </c>
       <c r="D65" s="2">
@@ -4867,14 +4880,14 @@
       <c r="L65" s="4">
         <v>7</v>
       </c>
-      <c r="M65" s="5">
-        <v>5</v>
-      </c>
-      <c r="N65" s="5">
-        <v>5</v>
-      </c>
-      <c r="O65" s="5">
-        <v>5</v>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>30</v>
+      </c>
+      <c r="O65">
+        <v>30</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -4885,21 +4898,21 @@
       <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="8">
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>8</v>
-      </c>
-      <c r="B66" s="7">
-        <v>8</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="A66" s="6">
+        <v>8</v>
+      </c>
+      <c r="B66" s="6">
+        <v>8</v>
+      </c>
+      <c r="C66" s="7">
         <v>0</v>
       </c>
       <c r="D66" s="2">
@@ -4929,14 +4942,14 @@
       <c r="L66" s="4">
         <v>2</v>
       </c>
-      <c r="M66" s="5">
-        <v>4</v>
-      </c>
-      <c r="N66" s="5">
-        <v>4</v>
-      </c>
-      <c r="O66" s="5">
-        <v>4</v>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -4947,10 +4960,10 @@
       <c r="R66">
         <v>1</v>
       </c>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="8">
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="7">
         <v>8</v>
       </c>
     </row>

--- a/big_data2.xlsx
+++ b/big_data2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F470DC6D-C5E0-C44E-A965-480F6F79AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E730C8F-DDDA-3448-ADC4-DB8D2F74F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2060" windowWidth="32200" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66:O66"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K57" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L57" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4438,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K58" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L58" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M58">
         <v>30</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H59" s="3">
         <v>10</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H60" s="3">
         <v>10</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H61" s="3">
         <v>10</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H62" s="3">
         <v>10</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H63" s="3">
         <v>10</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H64" s="3">
         <v>10</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H65" s="3">
         <v>10</v>
@@ -4872,13 +4872,13 @@
         <v>10</v>
       </c>
       <c r="J65" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K65" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L65" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <v>30</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H66" s="3">
         <v>10</v>
@@ -4934,13 +4934,13 @@
         <v>10</v>
       </c>
       <c r="J66" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K66" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L66" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M66">
         <v>0</v>
